--- a/仕様書/進捗管理_200710.xlsx
+++ b/仕様書/進捗管理_200710.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensyu\Desktop\神経衰弱用フォルダ\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cosmowinds365-my.sharepoint.com/personal/a_tanaka_cosmowinds_jp/Documents/研修/sinkeisuizyaku/仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9442FEA-3658-4E4E-87AE-E261EBA8BA48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{D9442FEA-3658-4E4E-87AE-E261EBA8BA48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6FA2C9BC-7BF1-46FC-9A4D-1D79DBEFD496}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="128">
   <si>
     <t>神経衰弱　進捗管理</t>
     <rPh sb="0" eb="4">
@@ -1196,6 +1196,27 @@
     </rPh>
     <rPh sb="55" eb="56">
       <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>池田・岩下</t>
+    <rPh sb="0" eb="2">
+      <t>イケダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イワシタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リハーサル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルトランキング修正</t>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1289,7 +1310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1702,17 +1723,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1912,7 +1922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1988,7 +1998,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -2005,17 +2014,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2030,10 +2038,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2044,16 +2052,32 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2062,22 +2086,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2086,16 +2104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2104,8 +2113,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2114,7 +2151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2123,32 +2160,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -2433,13 +2450,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52:D54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="7" max="7" width="9" style="37"/>
     <col min="10" max="10" width="7.375" customWidth="1"/>
     <col min="11" max="22" width="6.125" customWidth="1"/>
@@ -2449,49 +2467,49 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="54"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="53"/>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="54"/>
+      <c r="G5" s="53"/>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="53"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="54"/>
+      <c r="G8" s="53"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="54"/>
+      <c r="G9" s="53"/>
     </row>
     <row r="12" spans="1:22" ht="19.5" thickBot="1">
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="54"/>
+      <c r="G12" s="53"/>
     </row>
     <row r="13" spans="1:22" ht="19.5" thickBot="1">
       <c r="B13" s="6" t="s">
@@ -2560,10 +2578,10 @@
       <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="108"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="16" t="s">
         <v>28</v>
       </c>
@@ -2654,7 +2672,7 @@
         <v>44020</v>
       </c>
       <c r="J16" s="15">
-        <f t="shared" ref="J16:J30" si="1">J41</f>
+        <f t="shared" ref="J16:J34" si="1">J41</f>
         <v>100</v>
       </c>
       <c r="K16" s="12"/>
@@ -2940,10 +2958,10 @@
       <c r="B24" s="8">
         <v>11</v>
       </c>
-      <c r="C24" s="103" t="s">
+      <c r="C24" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="104"/>
+      <c r="D24" s="100"/>
       <c r="E24" s="17" t="s">
         <v>36</v>
       </c>
@@ -3016,10 +3034,10 @@
       <c r="B26" s="8">
         <v>13</v>
       </c>
-      <c r="C26" s="103" t="s">
+      <c r="C26" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="104"/>
+      <c r="D26" s="100"/>
       <c r="E26" s="24" t="s">
         <v>33</v>
       </c>
@@ -3135,7 +3153,7 @@
       </c>
       <c r="D29" s="98"/>
       <c r="E29" s="19" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="19" t="s">
@@ -3161,7 +3179,7 @@
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
+      <c r="U29" s="35"/>
       <c r="V29" s="32"/>
     </row>
     <row r="30" spans="2:22">
@@ -3172,14 +3190,14 @@
         <v>54</v>
       </c>
       <c r="D30" s="98"/>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="17" t="s">
         <v>28</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="49">
+      <c r="H30" s="48">
         <v>44021</v>
       </c>
       <c r="I30" s="42">
@@ -3203,15 +3221,30 @@
       <c r="V30" s="32"/>
     </row>
     <row r="31" spans="2:22">
-      <c r="B31" s="8"/>
-      <c r="C31" s="97"/>
+      <c r="B31" s="8">
+        <v>18</v>
+      </c>
+      <c r="C31" s="97" t="s">
+        <v>126</v>
+      </c>
       <c r="D31" s="98"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="8"/>
+      <c r="G31" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I31" s="48">
+        <v>44028</v>
+      </c>
+      <c r="J31" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K31" s="10"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -3221,20 +3254,35 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
       <c r="V31" s="32"/>
     </row>
     <row r="32" spans="2:22">
-      <c r="B32" s="8"/>
-      <c r="C32" s="97"/>
+      <c r="B32" s="8">
+        <v>19</v>
+      </c>
+      <c r="C32" s="97" t="s">
+        <v>127</v>
+      </c>
       <c r="D32" s="98"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="F32" s="8"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="25"/>
+      <c r="G32" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I32" s="48">
+        <v>44028</v>
+      </c>
+      <c r="J32" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K32" s="10"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -3242,8 +3290,8 @@
       <c r="O32" s="1"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="32"/>
@@ -3252,12 +3300,12 @@
       <c r="B33" s="8"/>
       <c r="C33" s="97"/>
       <c r="D33" s="98"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="8"/>
       <c r="G33" s="19"/>
       <c r="H33" s="8"/>
       <c r="I33" s="39"/>
-      <c r="J33" s="8"/>
+      <c r="J33" s="15"/>
       <c r="K33" s="10"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -3273,14 +3321,14 @@
     </row>
     <row r="34" spans="1:25" ht="19.5" thickBot="1">
       <c r="B34" s="9"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="9"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="143"/>
       <c r="F34" s="9"/>
       <c r="G34" s="38"/>
       <c r="H34" s="9"/>
       <c r="I34" s="43"/>
-      <c r="J34" s="45"/>
+      <c r="J34" s="144"/>
       <c r="K34" s="44"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -3294,11 +3342,14 @@
       <c r="U34" s="3"/>
       <c r="V34" s="34"/>
     </row>
+    <row r="35" spans="1:25">
+      <c r="E35" s="95"/>
+    </row>
     <row r="37" spans="1:25" ht="19.5" thickBot="1">
       <c r="A37" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="54"/>
+      <c r="G37" s="53"/>
     </row>
     <row r="38" spans="1:25" ht="19.5" thickBot="1">
       <c r="B38" s="6" t="s">
@@ -3326,7 +3377,7 @@
       <c r="J38" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="K38" s="60" t="s">
+      <c r="K38" s="58" t="s">
         <v>15</v>
       </c>
       <c r="L38" s="11" t="s">
@@ -3367,10 +3418,10 @@
       <c r="B39" s="7">
         <v>1</v>
       </c>
-      <c r="C39" s="109" t="s">
+      <c r="C39" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="110"/>
+      <c r="D39" s="108"/>
       <c r="E39" s="16" t="s">
         <v>28</v>
       </c>
@@ -3384,26 +3435,26 @@
       <c r="I39" s="41">
         <v>44018</v>
       </c>
-      <c r="J39" s="69">
+      <c r="J39" s="67">
         <f t="shared" ref="J39:J45" si="2">SUM(K39:U39)*100</f>
         <v>100</v>
       </c>
-      <c r="K39" s="62">
+      <c r="K39" s="60">
         <v>0.8</v>
       </c>
-      <c r="L39" s="63">
+      <c r="L39" s="61">
         <v>0.2</v>
       </c>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="72"/>
-      <c r="R39" s="71"/>
-      <c r="S39" s="71"/>
-      <c r="T39" s="71"/>
-      <c r="U39" s="71"/>
-      <c r="V39" s="73"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="70"/>
+      <c r="R39" s="69"/>
+      <c r="S39" s="69"/>
+      <c r="T39" s="69"/>
+      <c r="U39" s="69"/>
+      <c r="V39" s="71"/>
     </row>
     <row r="40" spans="1:25">
       <c r="B40" s="8">
@@ -3426,28 +3477,28 @@
       <c r="I40" s="42">
         <v>44020</v>
       </c>
-      <c r="J40" s="69">
+      <c r="J40" s="67">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K40" s="64">
+      <c r="K40" s="62">
         <v>0.5</v>
       </c>
-      <c r="L40" s="65">
+      <c r="L40" s="63">
         <v>0.3</v>
       </c>
-      <c r="M40" s="65">
+      <c r="M40" s="63">
         <v>0.2</v>
       </c>
-      <c r="N40" s="74"/>
-      <c r="O40" s="74"/>
-      <c r="P40" s="75"/>
-      <c r="Q40" s="75"/>
-      <c r="R40" s="74"/>
-      <c r="S40" s="74"/>
-      <c r="T40" s="74"/>
-      <c r="U40" s="74"/>
-      <c r="V40" s="76"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="72"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="72"/>
+      <c r="V40" s="74"/>
     </row>
     <row r="41" spans="1:25">
       <c r="B41" s="8">
@@ -3470,24 +3521,24 @@
       <c r="I41" s="42">
         <v>44020</v>
       </c>
-      <c r="J41" s="69">
+      <c r="J41" s="67">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K41" s="66">
+      <c r="K41" s="64">
         <v>1</v>
       </c>
-      <c r="L41" s="70"/>
-      <c r="M41" s="70"/>
-      <c r="N41" s="74"/>
-      <c r="O41" s="74"/>
-      <c r="P41" s="75"/>
-      <c r="Q41" s="75"/>
-      <c r="R41" s="74"/>
-      <c r="S41" s="74"/>
-      <c r="T41" s="74"/>
-      <c r="U41" s="74"/>
-      <c r="V41" s="76"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="72"/>
+      <c r="S41" s="72"/>
+      <c r="T41" s="72"/>
+      <c r="U41" s="72"/>
+      <c r="V41" s="74"/>
     </row>
     <row r="42" spans="1:25">
       <c r="B42" s="8">
@@ -3510,27 +3561,27 @@
       <c r="I42" s="42">
         <v>44020</v>
       </c>
-      <c r="J42" s="69">
+      <c r="J42" s="67">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K42" s="64">
+      <c r="K42" s="62">
         <v>0.5</v>
       </c>
-      <c r="L42" s="65">
+      <c r="L42" s="63">
         <v>0.5</v>
       </c>
-      <c r="M42" s="70"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="74"/>
-      <c r="P42" s="75"/>
-      <c r="Q42" s="75"/>
-      <c r="R42" s="74"/>
-      <c r="S42" s="74"/>
-      <c r="T42" s="74"/>
-      <c r="U42" s="74"/>
-      <c r="V42" s="76"/>
-      <c r="X42" s="61"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="74"/>
+      <c r="X42" s="59"/>
       <c r="Y42" t="s">
         <v>56</v>
       </c>
@@ -3556,24 +3607,24 @@
       <c r="I43" s="42">
         <v>44020</v>
       </c>
-      <c r="J43" s="69">
+      <c r="J43" s="67">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K43" s="66">
+      <c r="K43" s="64">
         <v>1</v>
       </c>
-      <c r="L43" s="70"/>
-      <c r="M43" s="70"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="70"/>
-      <c r="P43" s="75"/>
-      <c r="Q43" s="75"/>
-      <c r="R43" s="74"/>
-      <c r="S43" s="74"/>
-      <c r="T43" s="74"/>
-      <c r="U43" s="74"/>
-      <c r="V43" s="76"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="73"/>
+      <c r="R43" s="72"/>
+      <c r="S43" s="72"/>
+      <c r="T43" s="72"/>
+      <c r="U43" s="72"/>
+      <c r="V43" s="74"/>
     </row>
     <row r="44" spans="1:25">
       <c r="B44" s="8">
@@ -3596,25 +3647,25 @@
       <c r="I44" s="42">
         <v>44018</v>
       </c>
-      <c r="J44" s="69">
+      <c r="J44" s="67">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K44" s="66">
+      <c r="K44" s="64">
         <v>1</v>
       </c>
-      <c r="L44" s="70"/>
-      <c r="M44" s="70"/>
-      <c r="N44" s="70"/>
-      <c r="O44" s="70"/>
-      <c r="P44" s="75"/>
-      <c r="Q44" s="75"/>
-      <c r="R44" s="74"/>
-      <c r="S44" s="74"/>
-      <c r="T44" s="74"/>
-      <c r="U44" s="74"/>
-      <c r="V44" s="76"/>
-      <c r="X44" s="50"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="72"/>
+      <c r="U44" s="72"/>
+      <c r="V44" s="74"/>
+      <c r="X44" s="49"/>
       <c r="Y44" t="s">
         <v>57</v>
       </c>
@@ -3640,24 +3691,24 @@
       <c r="I45" s="42">
         <v>44020</v>
       </c>
-      <c r="J45" s="69">
+      <c r="J45" s="67">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K45" s="66">
+      <c r="K45" s="64">
         <v>1</v>
       </c>
-      <c r="L45" s="70"/>
-      <c r="M45" s="70"/>
-      <c r="N45" s="70"/>
-      <c r="O45" s="70"/>
-      <c r="P45" s="75"/>
-      <c r="Q45" s="75"/>
-      <c r="R45" s="74"/>
-      <c r="S45" s="74"/>
-      <c r="T45" s="74"/>
-      <c r="U45" s="74"/>
-      <c r="V45" s="76"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="73"/>
+      <c r="R45" s="72"/>
+      <c r="S45" s="72"/>
+      <c r="T45" s="72"/>
+      <c r="U45" s="72"/>
+      <c r="V45" s="74"/>
     </row>
     <row r="46" spans="1:25">
       <c r="B46" s="8">
@@ -3680,29 +3731,29 @@
       <c r="I46" s="42">
         <v>44026</v>
       </c>
-      <c r="J46" s="69">
+      <c r="J46" s="67">
         <f>SUM(K46:U46)*100</f>
         <v>40</v>
       </c>
-      <c r="K46" s="77"/>
-      <c r="L46" s="70"/>
-      <c r="M46" s="57">
+      <c r="K46" s="75"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="55">
         <v>0.2</v>
       </c>
-      <c r="N46" s="57">
+      <c r="N46" s="55">
         <v>0.1</v>
       </c>
-      <c r="O46" s="46">
+      <c r="O46" s="45">
         <v>0.1</v>
       </c>
-      <c r="P46" s="75"/>
-      <c r="Q46" s="75"/>
-      <c r="R46" s="74"/>
-      <c r="S46" s="74"/>
-      <c r="T46" s="74"/>
-      <c r="U46" s="74"/>
-      <c r="V46" s="76"/>
-      <c r="X46" s="51"/>
+      <c r="P46" s="73"/>
+      <c r="Q46" s="73"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="72"/>
+      <c r="V46" s="74"/>
+      <c r="X46" s="50"/>
       <c r="Y46" t="s">
         <v>58</v>
       </c>
@@ -3728,26 +3779,26 @@
       <c r="I47" s="42">
         <v>44026</v>
       </c>
-      <c r="J47" s="69">
+      <c r="J47" s="67">
         <f t="shared" ref="J47:J55" si="3">SUM(K47:U47)*100</f>
         <v>10</v>
       </c>
-      <c r="K47" s="77"/>
-      <c r="L47" s="70"/>
-      <c r="M47" s="70"/>
-      <c r="N47" s="46">
+      <c r="K47" s="75"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="45">
         <v>0.1</v>
       </c>
-      <c r="O47" s="46">
+      <c r="O47" s="45">
         <v>0</v>
       </c>
-      <c r="P47" s="75"/>
-      <c r="Q47" s="75"/>
-      <c r="R47" s="70"/>
-      <c r="S47" s="70"/>
-      <c r="T47" s="70"/>
-      <c r="U47" s="70"/>
-      <c r="V47" s="76"/>
+      <c r="P47" s="73"/>
+      <c r="Q47" s="73"/>
+      <c r="R47" s="68"/>
+      <c r="S47" s="68"/>
+      <c r="T47" s="68"/>
+      <c r="U47" s="68"/>
+      <c r="V47" s="74"/>
     </row>
     <row r="48" spans="1:25">
       <c r="B48" s="8">
@@ -3770,39 +3821,39 @@
       <c r="I48" s="42">
         <v>44022</v>
       </c>
-      <c r="J48" s="69">
+      <c r="J48" s="67">
         <f t="shared" si="3"/>
         <v>89.999999999999986</v>
       </c>
-      <c r="K48" s="77"/>
-      <c r="L48" s="57">
+      <c r="K48" s="75"/>
+      <c r="L48" s="55">
         <v>0.5</v>
       </c>
-      <c r="M48" s="57">
+      <c r="M48" s="55">
         <v>0.2</v>
       </c>
-      <c r="N48" s="57">
+      <c r="N48" s="55">
         <v>0.1</v>
       </c>
-      <c r="O48" s="46">
+      <c r="O48" s="45">
         <v>0.1</v>
       </c>
-      <c r="P48" s="75"/>
-      <c r="Q48" s="75"/>
-      <c r="R48" s="70"/>
-      <c r="S48" s="70"/>
-      <c r="T48" s="70"/>
-      <c r="U48" s="70"/>
-      <c r="V48" s="76"/>
+      <c r="P48" s="73"/>
+      <c r="Q48" s="73"/>
+      <c r="R48" s="68"/>
+      <c r="S48" s="68"/>
+      <c r="T48" s="68"/>
+      <c r="U48" s="68"/>
+      <c r="V48" s="74"/>
     </row>
     <row r="49" spans="2:22">
       <c r="B49" s="8">
         <v>11</v>
       </c>
-      <c r="C49" s="103" t="s">
+      <c r="C49" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="104"/>
+      <c r="D49" s="100"/>
       <c r="E49" s="17" t="s">
         <v>36</v>
       </c>
@@ -3816,26 +3867,26 @@
       <c r="I49" s="42">
         <v>44026</v>
       </c>
-      <c r="J49" s="69">
+      <c r="J49" s="67">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="K49" s="77"/>
-      <c r="L49" s="74"/>
-      <c r="M49" s="74"/>
-      <c r="N49" s="46">
+      <c r="K49" s="75"/>
+      <c r="L49" s="72"/>
+      <c r="M49" s="72"/>
+      <c r="N49" s="45">
         <v>0.5</v>
       </c>
-      <c r="O49" s="46">
+      <c r="O49" s="45">
         <v>0.2</v>
       </c>
-      <c r="P49" s="75"/>
-      <c r="Q49" s="75"/>
-      <c r="R49" s="78"/>
-      <c r="S49" s="78"/>
-      <c r="T49" s="78"/>
-      <c r="U49" s="78"/>
-      <c r="V49" s="79"/>
+      <c r="P49" s="73"/>
+      <c r="Q49" s="73"/>
+      <c r="R49" s="76"/>
+      <c r="S49" s="76"/>
+      <c r="T49" s="76"/>
+      <c r="U49" s="76"/>
+      <c r="V49" s="77"/>
     </row>
     <row r="50" spans="2:22">
       <c r="B50" s="8">
@@ -3858,39 +3909,39 @@
       <c r="I50" s="42">
         <v>44022</v>
       </c>
-      <c r="J50" s="69">
+      <c r="J50" s="67">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="K50" s="77"/>
-      <c r="L50" s="65">
+      <c r="K50" s="75"/>
+      <c r="L50" s="63">
         <v>0.6</v>
       </c>
-      <c r="M50" s="65">
+      <c r="M50" s="63">
         <v>0.2</v>
       </c>
-      <c r="N50" s="65">
+      <c r="N50" s="63">
         <v>0.2</v>
       </c>
-      <c r="O50" s="67">
+      <c r="O50" s="65">
         <v>0.2</v>
       </c>
-      <c r="P50" s="75"/>
-      <c r="Q50" s="75"/>
-      <c r="R50" s="78"/>
-      <c r="S50" s="78"/>
-      <c r="T50" s="78"/>
-      <c r="U50" s="78"/>
-      <c r="V50" s="79"/>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="76"/>
+      <c r="S50" s="76"/>
+      <c r="T50" s="76"/>
+      <c r="U50" s="76"/>
+      <c r="V50" s="77"/>
     </row>
     <row r="51" spans="2:22">
       <c r="B51" s="8">
         <v>13</v>
       </c>
-      <c r="C51" s="103" t="s">
+      <c r="C51" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="104"/>
+      <c r="D51" s="100"/>
       <c r="E51" s="24" t="s">
         <v>33</v>
       </c>
@@ -3904,28 +3955,28 @@
       <c r="I51" s="42">
         <v>44026</v>
       </c>
-      <c r="J51" s="69">
+      <c r="J51" s="67">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K51" s="77"/>
-      <c r="L51" s="74"/>
-      <c r="M51" s="65">
+      <c r="K51" s="75"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="63">
         <v>0.5</v>
       </c>
-      <c r="N51" s="65">
+      <c r="N51" s="63">
         <v>0.3</v>
       </c>
-      <c r="O51" s="67">
+      <c r="O51" s="65">
         <v>0.2</v>
       </c>
-      <c r="P51" s="75"/>
-      <c r="Q51" s="75"/>
-      <c r="R51" s="78"/>
-      <c r="S51" s="78"/>
-      <c r="T51" s="78"/>
-      <c r="U51" s="78"/>
-      <c r="V51" s="79"/>
+      <c r="P51" s="73"/>
+      <c r="Q51" s="73"/>
+      <c r="R51" s="76"/>
+      <c r="S51" s="76"/>
+      <c r="T51" s="76"/>
+      <c r="U51" s="76"/>
+      <c r="V51" s="77"/>
     </row>
     <row r="52" spans="2:22">
       <c r="B52" s="8">
@@ -3948,30 +3999,30 @@
       <c r="I52" s="42">
         <v>44026</v>
       </c>
-      <c r="J52" s="69">
+      <c r="J52" s="67">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="K52" s="77"/>
-      <c r="L52" s="58">
+      <c r="K52" s="75"/>
+      <c r="L52" s="56">
         <v>0.6</v>
       </c>
-      <c r="M52" s="58">
+      <c r="M52" s="56">
         <v>0.05</v>
       </c>
-      <c r="N52" s="58">
+      <c r="N52" s="56">
         <v>0.1</v>
       </c>
-      <c r="O52" s="58">
+      <c r="O52" s="56">
         <v>0</v>
       </c>
-      <c r="P52" s="75"/>
-      <c r="Q52" s="75"/>
-      <c r="R52" s="70"/>
-      <c r="S52" s="70"/>
-      <c r="T52" s="70"/>
-      <c r="U52" s="70"/>
-      <c r="V52" s="76"/>
+      <c r="P52" s="73"/>
+      <c r="Q52" s="73"/>
+      <c r="R52" s="68"/>
+      <c r="S52" s="68"/>
+      <c r="T52" s="68"/>
+      <c r="U52" s="68"/>
+      <c r="V52" s="74"/>
     </row>
     <row r="53" spans="2:22">
       <c r="B53" s="8">
@@ -3994,26 +4045,26 @@
       <c r="I53" s="42">
         <v>44028</v>
       </c>
-      <c r="J53" s="69">
+      <c r="J53" s="67">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="K53" s="77"/>
-      <c r="L53" s="74"/>
-      <c r="M53" s="74"/>
-      <c r="N53" s="46">
+      <c r="K53" s="75"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="72"/>
+      <c r="N53" s="45">
         <v>0.3</v>
       </c>
-      <c r="O53" s="46">
+      <c r="O53" s="45">
         <v>0.1</v>
       </c>
-      <c r="P53" s="75"/>
-      <c r="Q53" s="75"/>
-      <c r="R53" s="70"/>
-      <c r="S53" s="70"/>
-      <c r="T53" s="70"/>
-      <c r="U53" s="70"/>
-      <c r="V53" s="76"/>
+      <c r="P53" s="73"/>
+      <c r="Q53" s="73"/>
+      <c r="R53" s="68"/>
+      <c r="S53" s="68"/>
+      <c r="T53" s="68"/>
+      <c r="U53" s="68"/>
+      <c r="V53" s="74"/>
     </row>
     <row r="54" spans="2:22">
       <c r="B54" s="8">
@@ -4024,7 +4075,7 @@
       </c>
       <c r="D54" s="98"/>
       <c r="E54" s="19" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="19" t="s">
@@ -4036,22 +4087,22 @@
       <c r="I54" s="42">
         <v>44028</v>
       </c>
-      <c r="J54" s="69">
+      <c r="J54" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K54" s="77"/>
-      <c r="L54" s="74"/>
-      <c r="M54" s="74"/>
-      <c r="N54" s="74"/>
-      <c r="O54" s="74"/>
-      <c r="P54" s="75"/>
-      <c r="Q54" s="75"/>
-      <c r="R54" s="70"/>
-      <c r="S54" s="70"/>
-      <c r="T54" s="70"/>
-      <c r="U54" s="70"/>
-      <c r="V54" s="76"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="73"/>
+      <c r="R54" s="68"/>
+      <c r="S54" s="68"/>
+      <c r="T54" s="68"/>
+      <c r="U54" s="68"/>
+      <c r="V54" s="74"/>
     </row>
     <row r="55" spans="2:22">
       <c r="B55" s="8">
@@ -4068,76 +4119,104 @@
       <c r="G55" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H55" s="49">
+      <c r="H55" s="48">
         <v>44021</v>
       </c>
       <c r="I55" s="42">
         <v>44022</v>
       </c>
-      <c r="J55" s="69">
+      <c r="J55" s="67">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K55" s="77"/>
-      <c r="L55" s="74"/>
-      <c r="M55" s="74"/>
-      <c r="N55" s="67">
+      <c r="K55" s="75"/>
+      <c r="L55" s="72"/>
+      <c r="M55" s="72"/>
+      <c r="N55" s="65">
         <v>1</v>
       </c>
-      <c r="O55" s="74"/>
-      <c r="P55" s="75"/>
-      <c r="Q55" s="75"/>
-      <c r="R55" s="70"/>
-      <c r="S55" s="70"/>
-      <c r="T55" s="70"/>
-      <c r="U55" s="70"/>
-      <c r="V55" s="76"/>
+      <c r="O55" s="72"/>
+      <c r="P55" s="73"/>
+      <c r="Q55" s="73"/>
+      <c r="R55" s="68"/>
+      <c r="S55" s="68"/>
+      <c r="T55" s="68"/>
+      <c r="U55" s="68"/>
+      <c r="V55" s="74"/>
     </row>
     <row r="56" spans="2:22">
-      <c r="B56" s="8"/>
-      <c r="C56" s="97"/>
+      <c r="B56" s="8">
+        <v>18</v>
+      </c>
+      <c r="C56" s="97" t="s">
+        <v>126</v>
+      </c>
       <c r="D56" s="98"/>
-      <c r="E56" s="8"/>
+      <c r="E56" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="F56" s="8"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="77"/>
-      <c r="L56" s="74"/>
-      <c r="M56" s="74"/>
-      <c r="N56" s="74"/>
-      <c r="O56" s="74"/>
-      <c r="P56" s="75"/>
-      <c r="Q56" s="75"/>
-      <c r="R56" s="74"/>
-      <c r="S56" s="74"/>
-      <c r="T56" s="74"/>
-      <c r="U56" s="74"/>
-      <c r="V56" s="76"/>
+      <c r="G56" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I56" s="48">
+        <v>44028</v>
+      </c>
+      <c r="J56" s="15">
+        <v>0</v>
+      </c>
+      <c r="K56" s="75"/>
+      <c r="L56" s="72"/>
+      <c r="M56" s="72"/>
+      <c r="N56" s="72"/>
+      <c r="O56" s="72"/>
+      <c r="P56" s="73"/>
+      <c r="Q56" s="73"/>
+      <c r="R56" s="72"/>
+      <c r="S56" s="72"/>
+      <c r="T56" s="72"/>
+      <c r="U56" s="72"/>
+      <c r="V56" s="74"/>
     </row>
     <row r="57" spans="2:22">
-      <c r="B57" s="8"/>
-      <c r="C57" s="97"/>
+      <c r="B57" s="8">
+        <v>19</v>
+      </c>
+      <c r="C57" s="97" t="s">
+        <v>127</v>
+      </c>
       <c r="D57" s="98"/>
-      <c r="E57" s="8"/>
+      <c r="E57" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="F57" s="8"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="56"/>
-      <c r="K57" s="77"/>
-      <c r="L57" s="74"/>
-      <c r="M57" s="74"/>
-      <c r="N57" s="74"/>
-      <c r="O57" s="74"/>
-      <c r="P57" s="75"/>
-      <c r="Q57" s="75"/>
-      <c r="R57" s="74"/>
-      <c r="S57" s="74"/>
-      <c r="T57" s="74"/>
-      <c r="U57" s="74"/>
-      <c r="V57" s="76"/>
+      <c r="G57" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I57" s="48">
+        <v>44028</v>
+      </c>
+      <c r="J57" s="15">
+        <v>0</v>
+      </c>
+      <c r="K57" s="75"/>
+      <c r="L57" s="72"/>
+      <c r="M57" s="72"/>
+      <c r="N57" s="72"/>
+      <c r="O57" s="72"/>
+      <c r="P57" s="73"/>
+      <c r="Q57" s="73"/>
+      <c r="R57" s="72"/>
+      <c r="S57" s="72"/>
+      <c r="T57" s="72"/>
+      <c r="U57" s="72"/>
+      <c r="V57" s="74"/>
     </row>
     <row r="58" spans="2:22">
       <c r="B58" s="8"/>
@@ -4149,75 +4228,44 @@
       <c r="H58" s="8"/>
       <c r="I58" s="39"/>
       <c r="J58" s="39"/>
-      <c r="K58" s="77"/>
-      <c r="L58" s="74"/>
-      <c r="M58" s="74"/>
-      <c r="N58" s="74"/>
-      <c r="O58" s="74"/>
-      <c r="P58" s="75"/>
-      <c r="Q58" s="75"/>
-      <c r="R58" s="74"/>
-      <c r="S58" s="74"/>
-      <c r="T58" s="74"/>
-      <c r="U58" s="74"/>
-      <c r="V58" s="76"/>
+      <c r="K58" s="75"/>
+      <c r="L58" s="72"/>
+      <c r="M58" s="72"/>
+      <c r="N58" s="72"/>
+      <c r="O58" s="72"/>
+      <c r="P58" s="73"/>
+      <c r="Q58" s="73"/>
+      <c r="R58" s="72"/>
+      <c r="S58" s="72"/>
+      <c r="T58" s="72"/>
+      <c r="U58" s="72"/>
+      <c r="V58" s="74"/>
     </row>
     <row r="59" spans="2:22" ht="19.5" thickBot="1">
       <c r="B59" s="9"/>
-      <c r="C59" s="99"/>
-      <c r="D59" s="100"/>
+      <c r="C59" s="103"/>
+      <c r="D59" s="104"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="38"/>
       <c r="H59" s="9"/>
       <c r="I59" s="43"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="80"/>
-      <c r="L59" s="81"/>
-      <c r="M59" s="81"/>
-      <c r="N59" s="81"/>
-      <c r="O59" s="81"/>
-      <c r="P59" s="82"/>
-      <c r="Q59" s="82"/>
-      <c r="R59" s="81"/>
-      <c r="S59" s="81"/>
-      <c r="T59" s="81"/>
-      <c r="U59" s="81"/>
-      <c r="V59" s="83"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="78"/>
+      <c r="L59" s="79"/>
+      <c r="M59" s="79"/>
+      <c r="N59" s="79"/>
+      <c r="O59" s="79"/>
+      <c r="P59" s="80"/>
+      <c r="Q59" s="80"/>
+      <c r="R59" s="79"/>
+      <c r="S59" s="79"/>
+      <c r="T59" s="79"/>
+      <c r="U59" s="79"/>
+      <c r="V59" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C23:D23"/>
@@ -4231,6 +4279,37 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4397,8 +4476,8 @@
       <c r="B30" s="111"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="22" t="s">
@@ -4605,8 +4684,8 @@
       <c r="B29" s="111"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="22" t="s">
@@ -4645,18 +4724,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4675,229 +4754,229 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="47"/>
+    <col min="1" max="1" width="8.75" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="113"/>
+      <c r="B2" s="112"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="113"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="113"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="46" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="46" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="46" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="112" t="s">
+      <c r="E14" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="112"/>
+      <c r="F14" s="114"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="E15" s="112" t="s">
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="E15" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="112"/>
+      <c r="F15" s="114"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="E16" s="112" t="s">
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="E16" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="114"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="E17" s="112" t="s">
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="E17" s="114" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="112"/>
+      <c r="F17" s="114"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="E18" s="112" t="s">
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="E18" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="112"/>
+      <c r="F18" s="114"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="E19" s="112" t="s">
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="E19" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="112"/>
+      <c r="F19" s="114"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="E20" s="112" t="s">
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="E20" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="112"/>
+      <c r="F20" s="114"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="E21" s="112" t="s">
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="E21" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="112"/>
+      <c r="F21" s="114"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="46" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="47" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="47" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="47" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="47" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="47" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="47" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="55"/>
+      <c r="A30" s="54"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="46" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="46" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="46" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="46" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="46" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="46" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="46" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="46" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4955,16 +5034,16 @@
       <c r="A14" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="112" t="s">
+      <c r="E14" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="112"/>
+      <c r="F14" s="114"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="51">
         <v>0.3</v>
       </c>
       <c r="F15" t="s">
@@ -4975,7 +5054,7 @@
       <c r="A16" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="51">
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
@@ -4986,7 +5065,7 @@
       <c r="A17" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="51">
         <v>0.8</v>
       </c>
       <c r="F17" t="s">
@@ -4997,7 +5076,7 @@
       <c r="A18" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="51">
         <v>0.5</v>
       </c>
       <c r="F18" t="s">
@@ -5040,7 +5119,7 @@
       <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="51" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5128,7 +5207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F71F5A-79AC-4569-B6C8-B0EC792A6222}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
@@ -5164,93 +5243,93 @@
     </row>
     <row r="10" spans="1:6" ht="19.5" thickBot="1"/>
     <row r="11" spans="1:6">
-      <c r="A11" s="125" t="s">
+      <c r="A11" s="127" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="126"/>
+      <c r="B11" s="128"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A12" s="127" t="s">
+      <c r="A12" s="129" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="128"/>
+      <c r="B12" s="130"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" thickBot="1"/>
     <row r="14" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="87" t="s">
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="85" t="s">
         <v>82</v>
       </c>
       <c r="E14" s="29"/>
-      <c r="F14" s="84"/>
+      <c r="F14" s="82"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="137" t="s">
+      <c r="A15" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="138"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="88">
+      <c r="B15" s="119"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="86">
         <v>0.4</v>
       </c>
-      <c r="E15" s="92" t="s">
+      <c r="E15" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="85"/>
+      <c r="F15" s="83"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="134" t="s">
+      <c r="A16" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="135"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="88">
+      <c r="B16" s="116"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="86">
         <v>0.1</v>
       </c>
-      <c r="E16" s="92" t="s">
+      <c r="E16" s="90" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="134" t="s">
+      <c r="A17" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="135"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="88">
+      <c r="B17" s="116"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="86">
         <v>0.9</v>
       </c>
-      <c r="E17" s="92" t="s">
+      <c r="E17" s="90" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="135"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="88">
+      <c r="B18" s="116"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="86">
         <v>0.7</v>
       </c>
-      <c r="E18" s="94" t="s">
+      <c r="E18" s="92" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="134" t="s">
+      <c r="A19" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="135"/>
-      <c r="C19" s="136"/>
-      <c r="D19" s="88">
+      <c r="B19" s="116"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="86">
         <v>1.2</v>
       </c>
-      <c r="E19" s="93" t="s">
+      <c r="E19" s="91" t="s">
         <v>84</v>
       </c>
       <c r="F19" t="s">
@@ -5258,148 +5337,156 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="88">
+      <c r="B20" s="88"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="86">
         <v>1</v>
       </c>
-      <c r="E20" s="93" t="s">
+      <c r="E20" s="91" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="134" t="s">
+      <c r="A21" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="135"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="88">
+      <c r="B21" s="116"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="86">
         <v>0.75</v>
       </c>
-      <c r="E21" s="94" t="s">
+      <c r="E21" s="92" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A22" s="140" t="s">
+      <c r="A22" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="141"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="89">
+      <c r="B22" s="122"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="87">
         <v>0.4</v>
       </c>
-      <c r="E22" s="95" t="s">
+      <c r="E22" s="93" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="19.5" thickBot="1"/>
     <row r="24" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A24" s="122" t="s">
+      <c r="A24" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="123"/>
-      <c r="C24" s="124"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="126"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="131" t="s">
+      <c r="A25" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="132"/>
-      <c r="C25" s="133"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="135"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="134" t="s">
+      <c r="A26" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="135"/>
-      <c r="C26" s="136"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="117"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="134" t="s">
+      <c r="A27" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="135"/>
-      <c r="C27" s="136"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="117"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="134" t="s">
+      <c r="A28" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="135"/>
-      <c r="C28" s="136"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="117"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="116" t="s">
+      <c r="A29" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="117"/>
-      <c r="C29" s="118"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="139"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="116" t="s">
+      <c r="A30" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="118"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="139"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A31" s="119" t="s">
+      <c r="A31" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="120"/>
-      <c r="C31" s="121"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="142"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="66" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="143" t="s">
+      <c r="A35" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="143"/>
-      <c r="C35" s="143"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="96"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="85" t="s">
+      <c r="A37" s="83" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="46" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="96" t="s">
+      <c r="A39" s="94" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="85" t="s">
+      <c r="A41" s="83" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="115" t="s">
+      <c r="A42" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="115"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="136"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="136"/>
+      <c r="I42" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A26:C26"/>
@@ -5411,14 +5498,6 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
